--- a/Docs/JSZX/Data.xlsx
+++ b/Docs/JSZX/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3615" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="7"/>
+    <workbookView xWindow="5865" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="表1-管理员表-admins_tb" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="表6-上课安排表-schedule_tb" sheetId="7" r:id="rId6"/>
     <sheet name="表7-实验记录表-expRecords_tb" sheetId="8" r:id="rId7"/>
     <sheet name="表8-弹窗时刻表-PopTimes_tb" sheetId="10" r:id="rId8"/>
+    <sheet name="表9-反馈信息表-Feedbacks_tb" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="220">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -809,19 +810,111 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>主键，自增，窗口弹出时刻编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PopTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表9-反馈信息表-Feedbacks_tb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FbID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FbWorkStar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作得分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FbSoftStar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件得分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反馈类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FbContent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FbType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反馈内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FbExpRecord</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反馈对应记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FbSchedule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反馈对应的课程安排</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>PopTimeID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主键，自增，窗口弹出时刻编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PopTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹出时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -891,7 +984,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -909,13 +1002,37 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="48">
+  <dxfs count="54">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1098,9 +1215,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A2:D9" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A2:D9" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
   <tableColumns count="4">
-    <tableColumn id="1" name="字段名" dataDxfId="45"/>
+    <tableColumn id="1" name="字段名" dataDxfId="51"/>
+    <tableColumn id="2" name="数据类型" dataDxfId="50"/>
+    <tableColumn id="3" name="是否可空" dataDxfId="49"/>
+    <tableColumn id="4" name="说明" dataDxfId="48"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A2:D8" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
+  <tableColumns count="4">
+    <tableColumn id="1" name="字段" dataDxfId="45"/>
     <tableColumn id="2" name="数据类型" dataDxfId="44"/>
     <tableColumn id="3" name="是否可空" dataDxfId="43"/>
     <tableColumn id="4" name="说明" dataDxfId="42"/>
@@ -1109,8 +1238,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A2:D8" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表3_5" displayName="表3_5" ref="A2:D6" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
   <tableColumns count="4">
     <tableColumn id="1" name="字段" dataDxfId="39"/>
     <tableColumn id="2" name="数据类型" dataDxfId="38"/>
@@ -1121,8 +1250,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表3_5" displayName="表3_5" ref="A2:D6" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表3_6" displayName="表3_6" ref="A2:D8" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
   <tableColumns count="4">
     <tableColumn id="1" name="字段" dataDxfId="33"/>
     <tableColumn id="2" name="数据类型" dataDxfId="32"/>
@@ -1133,8 +1262,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表3_6" displayName="表3_6" ref="A2:D8" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="表3_67" displayName="表3_67" ref="A2:D11" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
   <tableColumns count="4">
     <tableColumn id="1" name="字段" dataDxfId="27"/>
     <tableColumn id="2" name="数据类型" dataDxfId="26"/>
@@ -1145,8 +1274,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="表3_67" displayName="表3_67" ref="A2:D11" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="表3_678" displayName="表3_678" ref="A2:D9" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <tableColumns count="4">
     <tableColumn id="1" name="字段" dataDxfId="21"/>
     <tableColumn id="2" name="数据类型" dataDxfId="20"/>
@@ -1157,8 +1286,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="表3_678" displayName="表3_678" ref="A2:D9" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="表3_6789" displayName="表3_6789" ref="A2:D24" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <tableColumns count="4">
     <tableColumn id="1" name="字段" dataDxfId="15"/>
     <tableColumn id="2" name="数据类型" dataDxfId="14"/>
@@ -1169,8 +1298,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="表3_6789" displayName="表3_6789" ref="A2:D24" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表3_6782" displayName="表3_6782" ref="A2:D4" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <tableColumns count="4">
     <tableColumn id="1" name="字段" dataDxfId="9"/>
     <tableColumn id="2" name="数据类型" dataDxfId="8"/>
@@ -1181,8 +1310,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表3_6782" displayName="表3_6782" ref="A2:D4" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="表3_678210" displayName="表3_678210" ref="A2:D9" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <tableColumns count="4">
     <tableColumn id="1" name="字段" dataDxfId="3"/>
     <tableColumn id="2" name="数据类型" dataDxfId="2"/>
@@ -1496,12 +1625,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -1616,12 +1745,12 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1669,12 +1798,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -1813,12 +1942,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -1929,12 +2058,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -2073,12 +2202,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -2253,12 +2382,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -2417,12 +2546,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -2767,7 +2896,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2779,12 +2908,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
@@ -2802,7 +2931,7 @@
     </row>
     <row r="3" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>5</v>
@@ -2811,12 +2940,12 @@
         <v>6</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>192</v>
@@ -2825,7 +2954,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2854,4 +2983,156 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView view="pageLayout" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18.75" customWidth="1"/>
+    <col min="2" max="2" width="13.625" customWidth="1"/>
+    <col min="3" max="3" width="9.375" customWidth="1"/>
+    <col min="4" max="4" width="47" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C表9-反馈信息表-Feedbacks_tb</oddHeader>
+  </headerFooter>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Docs/JSZX/Data.xlsx
+++ b/Docs/JSZX/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5865" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="7"/>
+    <workbookView xWindow="6990" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="表1-管理员表-admins_tb" sheetId="1" r:id="rId1"/>
@@ -104,10 +104,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LabID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -184,10 +180,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TermYear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TermIndex</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -356,18 +348,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CourseName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>varchar(50)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ExpName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>varchar(50)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -400,10 +384,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Realizer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Groups</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -589,10 +569,6 @@
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RecordID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -915,6 +891,30 @@
   </si>
   <si>
     <t>PopTimeID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecordID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CourseName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExpName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Realizer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TermYear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LabID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1648,7 +1648,7 @@
     </row>
     <row r="3" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
@@ -1657,12 +1657,12 @@
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
@@ -1671,12 +1671,12 @@
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>9</v>
@@ -1685,12 +1685,12 @@
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>9</v>
@@ -1699,12 +1699,12 @@
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>11</v>
@@ -1713,29 +1713,29 @@
         <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>13</v>
@@ -1785,8 +1785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1799,7 +1799,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -1821,35 +1821,35 @@
     </row>
     <row r="3" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
@@ -1858,12 +1858,12 @@
         <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>9</v>
@@ -1872,35 +1872,35 @@
         <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1943,7 +1943,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -1965,58 +1965,58 @@
     </row>
     <row r="3" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2046,7 +2046,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2059,7 +2059,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -2081,86 +2081,86 @@
     </row>
     <row r="3" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>40</v>
+        <v>218</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2203,7 +2203,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -2225,122 +2225,122 @@
     </row>
     <row r="3" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>13</v>
@@ -2383,7 +2383,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -2405,35 +2405,35 @@
     </row>
     <row r="3" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>11</v>
@@ -2442,63 +2442,63 @@
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2533,8 +2533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView view="pageLayout" topLeftCell="A10" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2547,7 +2547,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -2569,77 +2569,77 @@
     </row>
     <row r="3" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>142</v>
+        <v>214</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>83</v>
+        <v>215</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>85</v>
+        <v>216</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>94</v>
+        <v>217</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
@@ -2648,110 +2648,110 @@
         <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>9</v>
@@ -2760,96 +2760,96 @@
         <v>13</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>11</v>
@@ -2858,21 +2858,21 @@
         <v>13</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -2895,7 +2895,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -2909,7 +2909,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -2931,7 +2931,7 @@
     </row>
     <row r="3" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>5</v>
@@ -2940,21 +2940,21 @@
         <v>6</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3003,7 +3003,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -3025,7 +3025,7 @@
     </row>
     <row r="3" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>5</v>
@@ -3034,91 +3034,91 @@
         <v>6</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
